--- a/IKZ_plugin/tests/data/movpe_IKZ/movpe2_growth_parser/GaO.growth.movpe.ikz.xlsx
+++ b/IKZ_plugin/tests/data/movpe_IKZ/movpe2_growth_parser/GaO.growth.movpe.ikz.xlsx
@@ -841,8 +841,8 @@
   </sheetPr>
   <dimension ref="A1:ALT14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK20" activeCellId="0" sqref="AK20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5649,7 +5649,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>80</v>
@@ -6735,7 +6735,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>85</v>

--- a/IKZ_plugin/tests/data/movpe_IKZ/movpe2_growth_parser/GaO.growth.movpe.ikz.xlsx
+++ b/IKZ_plugin/tests/data/movpe_IKZ/movpe2_growth_parser/GaO.growth.movpe.ikz.xlsx
@@ -294,7 +294,7 @@
     <numFmt numFmtId="167" formatCode="0.00E+00"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -412,6 +412,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -518,7 +523,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -723,6 +728,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,8 +850,8 @@
   </sheetPr>
   <dimension ref="A1:ALT14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI18" activeCellId="0" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3492,97 +3501,97 @@
         <v>8</v>
       </c>
       <c r="G11" s="11" t="n">
-        <v>211</v>
-      </c>
-      <c r="H11" s="44" t="n">
-        <v>841</v>
+        <v>210</v>
+      </c>
+      <c r="H11" s="51" t="n">
+        <v>840</v>
       </c>
       <c r="I11" s="44" t="n">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J11" s="45" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K11" s="45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="45" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M11" s="11" t="str">
         <f aca="false">[1]Overview!$I$10</f>
         <v>Argon</v>
       </c>
       <c r="N11" s="46" t="n">
-        <v>4901</v>
+        <v>4900</v>
       </c>
       <c r="O11" s="46" t="n">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="P11" s="46" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>74</v>
       </c>
       <c r="R11" s="45" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S11" s="11" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="T11" s="45"/>
       <c r="U11" s="45"/>
       <c r="V11" s="45"/>
       <c r="W11" s="46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X11" s="47" t="n">
         <f aca="false">1.333*10^(8.083-2162/(W11+273.15))</f>
-        <v>7.2083961905046</v>
+        <v>6.80402951697616</v>
       </c>
       <c r="Y11" s="48" t="n">
         <f aca="false">(R11*X11)/((R11-X11)*22400)</f>
-        <v>0.000419303613245053</v>
+        <v>0.00039285010895895</v>
       </c>
       <c r="Z11" s="49" t="s">
         <v>75</v>
       </c>
       <c r="AA11" s="45" t="n">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AB11" s="11" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AC11" s="45" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AD11" s="45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE11" s="45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" s="46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG11" s="47" t="n">
         <f aca="false">1.333*10^(8.742-2522/(AF11+273.15))</f>
-        <v>1.96323945605219</v>
+        <v>1.83537975333949</v>
       </c>
       <c r="AH11" s="48" t="n">
         <f aca="false">AG11*(AD11*AE11/(AD11+AC11))/AB11/22400</f>
-        <v>3.13014321195717E-009</v>
+        <v>2.03822378435889E-009</v>
       </c>
       <c r="AI11" s="49" t="s">
         <v>76</v>
       </c>
       <c r="AJ11" s="11" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AK11" s="11" t="n">
         <f aca="false">AJ11/22400</f>
-        <v>0.0223660714285714</v>
+        <v>0.0223214285714286</v>
       </c>
       <c r="AL11" s="50" t="s">
         <v>77</v>
@@ -4593,20 +4602,20 @@
         <v>27</v>
       </c>
       <c r="L12" s="45" t="n">
-        <v>502</v>
+        <v>600</v>
       </c>
       <c r="M12" s="11" t="str">
         <f aca="false">[1]Overview!$I$10</f>
         <v>Argon</v>
       </c>
       <c r="N12" s="46" t="n">
-        <v>4902</v>
+        <v>3000</v>
       </c>
       <c r="O12" s="46" t="n">
-        <v>1802</v>
+        <v>4000</v>
       </c>
       <c r="P12" s="46" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="11" t="s">
         <v>74</v>
@@ -4615,39 +4624,39 @@
         <v>32</v>
       </c>
       <c r="S12" s="11" t="n">
-        <v>1002</v>
+        <v>1200</v>
       </c>
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
       <c r="V12" s="45"/>
       <c r="W12" s="46" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="X12" s="47" t="n">
         <f aca="false">1.333*10^(8.083-2162/(W12+273.15))</f>
-        <v>7.63380762902518</v>
+        <v>32.9183978916656</v>
       </c>
       <c r="Y12" s="48" t="n">
         <f aca="false">(R12*X12)/((R12-X12)*22400)</f>
-        <v>0.000447564367218351</v>
+        <v>-0.0512046936618006</v>
       </c>
       <c r="Z12" s="49" t="s">
         <v>75</v>
       </c>
       <c r="AA12" s="45" t="n">
-        <v>902</v>
+        <v>700</v>
       </c>
       <c r="AB12" s="11" t="n">
-        <v>1002</v>
-      </c>
-      <c r="AC12" s="45" t="n">
-        <v>1002</v>
+        <v>500</v>
+      </c>
+      <c r="AC12" s="11" t="n">
+        <v>500</v>
       </c>
       <c r="AD12" s="45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE12" s="45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF12" s="46" t="n">
         <v>22</v>
@@ -4658,17 +4667,17 @@
       </c>
       <c r="AH12" s="48" t="n">
         <f aca="false">AG12*(AD12*AE12/(AD12+AC12))/AB12/22400</f>
-        <v>4.54162841537936E-009</v>
+        <v>2.36113415510719E-008</v>
       </c>
       <c r="AI12" s="49" t="s">
         <v>76</v>
       </c>
       <c r="AJ12" s="11" t="n">
-        <v>502</v>
+        <v>700</v>
       </c>
       <c r="AK12" s="11" t="n">
         <f aca="false">AJ12/22400</f>
-        <v>0.0224107142857143</v>
+        <v>0.03125</v>
       </c>
       <c r="AL12" s="50" t="s">
         <v>77</v>
@@ -5664,70 +5673,70 @@
         <v>8</v>
       </c>
       <c r="G13" s="11" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H13" s="44" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I13" s="44" t="n">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J13" s="45" t="n">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K13" s="45" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L13" s="45" t="n">
-        <v>503</v>
+        <v>600</v>
       </c>
       <c r="M13" s="11" t="str">
         <f aca="false">[1]Overview!$I$10</f>
         <v>Argon</v>
       </c>
       <c r="N13" s="46" t="n">
-        <v>4903</v>
+        <v>3000</v>
       </c>
       <c r="O13" s="46" t="n">
-        <v>1803</v>
+        <v>4000</v>
       </c>
       <c r="P13" s="46" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="11" t="s">
         <v>74</v>
       </c>
       <c r="R13" s="45" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="11" t="n">
-        <v>1003</v>
+        <v>1200</v>
       </c>
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
       <c r="V13" s="45"/>
       <c r="W13" s="46" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="X13" s="47" t="n">
         <f aca="false">1.333*10^(8.083-2162/(W13+273.15))</f>
-        <v>8.08119523995539</v>
+        <v>32.9183978916656</v>
       </c>
       <c r="Y13" s="48" t="n">
         <f aca="false">(R13*X13)/((R13-X13)*22400)</f>
-        <v>0.000477764980615678</v>
+        <v>-0.0512046936618006</v>
       </c>
       <c r="Z13" s="49" t="s">
         <v>75</v>
       </c>
       <c r="AA13" s="45" t="n">
-        <v>903</v>
+        <v>700</v>
       </c>
       <c r="AB13" s="11" t="n">
-        <v>1003</v>
-      </c>
-      <c r="AC13" s="45" t="n">
-        <v>1003</v>
+        <v>500</v>
+      </c>
+      <c r="AC13" s="11" t="n">
+        <v>500</v>
       </c>
       <c r="AD13" s="45" t="n">
         <v>8</v>
@@ -5736,25 +5745,25 @@
         <v>8</v>
       </c>
       <c r="AF13" s="46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG13" s="47" t="n">
         <f aca="false">1.333*10^(8.742-2522/(AF13+273.15))</f>
-        <v>2.24323822491956</v>
+        <v>2.09904826389029</v>
       </c>
       <c r="AH13" s="48" t="n">
         <f aca="false">AG13*(AD13*AE13/(AD13+AC13))/AB13/22400</f>
-        <v>6.3205557128799E-009</v>
+        <v>2.36113415510719E-008</v>
       </c>
       <c r="AI13" s="49" t="s">
         <v>76</v>
       </c>
       <c r="AJ13" s="11" t="n">
-        <v>503</v>
+        <v>700</v>
       </c>
       <c r="AK13" s="11" t="n">
         <f aca="false">AJ13/22400</f>
-        <v>0.0224553571428571</v>
+        <v>0.03125</v>
       </c>
       <c r="AL13" s="50" t="s">
         <v>77</v>
@@ -6750,97 +6759,97 @@
         <v>9</v>
       </c>
       <c r="G14" s="11" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H14" s="44" t="n">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I14" s="44" t="n">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J14" s="45" t="n">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="K14" s="45" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L14" s="45" t="n">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="M14" s="11" t="str">
         <f aca="false">[1]Overview!$I$10</f>
         <v>Argon</v>
       </c>
       <c r="N14" s="46" t="n">
-        <v>4904</v>
+        <v>3000</v>
       </c>
       <c r="O14" s="46" t="n">
-        <v>1804</v>
+        <v>4000</v>
       </c>
       <c r="P14" s="46" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="11" t="s">
         <v>74</v>
       </c>
       <c r="R14" s="45" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S14" s="11" t="n">
-        <v>1004</v>
+        <v>1200</v>
       </c>
       <c r="T14" s="45"/>
       <c r="U14" s="45"/>
       <c r="V14" s="45"/>
       <c r="W14" s="46" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="X14" s="47" t="n">
         <f aca="false">1.333*10^(8.083-2162/(W14+273.15))</f>
-        <v>8.55152381792336</v>
+        <v>32.9183978916656</v>
       </c>
       <c r="Y14" s="48" t="n">
         <f aca="false">(R14*X14)/((R14-X14)*22400)</f>
-        <v>0.000510049851962836</v>
+        <v>-0.0512046936618006</v>
       </c>
       <c r="Z14" s="49" t="s">
         <v>75</v>
       </c>
       <c r="AA14" s="45" t="n">
-        <v>904</v>
+        <v>700</v>
       </c>
       <c r="AB14" s="11" t="n">
-        <v>1004</v>
-      </c>
-      <c r="AC14" s="45" t="n">
-        <v>1004</v>
+        <v>500</v>
+      </c>
+      <c r="AC14" s="11" t="n">
+        <v>500</v>
       </c>
       <c r="AD14" s="45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE14" s="45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF14" s="46" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG14" s="47" t="n">
         <f aca="false">1.333*10^(8.742-2522/(AF14+273.15))</f>
-        <v>2.39626128381867</v>
+        <v>2.09904826389029</v>
       </c>
       <c r="AH14" s="48" t="n">
         <f aca="false">AG14*(AD14*AE14/(AD14+AC14))/AB14/22400</f>
-        <v>8.51977279805612E-009</v>
+        <v>2.36113415510719E-008</v>
       </c>
       <c r="AI14" s="49" t="s">
         <v>76</v>
       </c>
       <c r="AJ14" s="11" t="n">
-        <v>504</v>
+        <v>700</v>
       </c>
       <c r="AK14" s="11" t="n">
         <f aca="false">AJ14/22400</f>
-        <v>0.0225</v>
+        <v>0.03125</v>
       </c>
       <c r="AL14" s="50" t="s">
         <v>77</v>
